--- a/UnityBasic2/Assets/Data/Data.xlsx
+++ b/UnityBasic2/Assets/Data/Data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityBasic2\UnityBasic2\UnityBasic2\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB46C20-F80B-4267-93E6-6A35257C1652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="1490" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="3" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="1" r:id="rId2"/>
+    <sheet name="Character" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +27,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤리아나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benriana_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤리아나_기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benriana_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤리아나_웃는표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benriana_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤리아나_화난표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reina_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이나_기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reina_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이나_웃는표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reina_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이나_화난표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바보친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG_Room2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 바보가 된 레이나도 좋다고 생각합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -35,7 +140,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bbno</t>
+    <t>BG_Room3</t>
+  </si>
+  <si>
+    <t>BG_Room4</t>
+  </si>
+  <si>
+    <t>BG_Room5</t>
+  </si>
+  <si>
+    <t>BG_Room6</t>
+  </si>
+  <si>
+    <t>대사도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적힐 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있을 것입니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,8 +208,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -360,29 +492,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BC92EB-38BB-4BE7-920C-CD036A12882F}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10102</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10103</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10104</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10105</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC84202-465F-4A6D-AE81-77A329CD923C}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>10201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>10202</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>10203</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
